--- a/Карточка_контрагента.xlsx
+++ b/Карточка_контрагента.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28902"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28920"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mi\Documents\Diplom_Ali4i4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mi\Documents\Diplom_Ali4i4\Auto_Tender_System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A6EB5F-EF68-474D-A054-5BA9C5698F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E011C31-7EE0-4A81-830C-31BB7A3A2741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{18C4F61D-F4BF-4CE7-9A97-BC65FF6E4A51}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Полное наименование</t>
   </si>
@@ -36,9 +36,6 @@
     <t>ИНН</t>
   </si>
   <si>
-    <t>КПП</t>
-  </si>
-  <si>
     <t>Адрес электронной почты</t>
   </si>
   <si>
@@ -52,13 +49,31 @@
   </si>
   <si>
     <t xml:space="preserve">Заполните информацию о юридическом лице для подписания NDA </t>
+  </si>
+  <si>
+    <t>kuzia45@gmail.com</t>
+  </si>
+  <si>
+    <t>Попова Алина Александровна</t>
+  </si>
+  <si>
+    <t>Кузьмин Константин Юрьевич</t>
+  </si>
+  <si>
+    <t>Данилова Валерия Викторовна</t>
+  </si>
+  <si>
+    <t>{eq</t>
+  </si>
+  <si>
+    <t>пидзза</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,19 +92,20 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -106,8 +122,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -422,71 +440,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EE6542-27BF-4613-AA73-5BC4567F2405}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="27.36328125" customWidth="1"/>
+    <col min="2" max="2" width="19.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>8</v>
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1234567890</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1"/>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>